--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Chanoux/Pierre_Chanoux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Chanoux/Pierre_Chanoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Chanoux (1828-1909) est un prêtre, un alpiniste et un botaniste valdôtain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du hameau Chardonney de Champorcher, où il naquit le 3 avril 1828, il s'orienta assez tôt vers le sacerdoce. Prête en 1855, il est nommé vicaire à Châtillon puis à Valgrisenche. Le 27 août 1859, il fut nommé recteur de l'Hospice du Col du Petit-Saint-Bernard et occupe le poste à partir du 1er août 1860 pendant près de cinquante ans.
 Il fut parmi les premiers membres du Club alpin italien, qui venait de se former à l'époque. Passionné de botanique, il entra en contact avec les représentants les plus connus de cette science, tels que Henry Correvon et Lino Vaccari, et créa le jardin botanique alpin Chanousia au col du Petit-Saint-Bernard inauguré le 29 juillet 1897, aidé par l'abbé Joseph-Marie Henry.
